--- a/src/отчет_по_автотранспорту_февраль_2022.xlsx
+++ b/src/отчет_по_автотранспорту_февраль_2022.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D55E154-0637-45DC-A028-32162FBBCE63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="7968"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет_транспорт" sheetId="4" r:id="rId1"/>
@@ -89,17 +90,17 @@
     <definedName name="Фонд_перевып_розн_5">#REF!</definedName>
     <definedName name="Фонд_перевып_розн_6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="CB6" authorId="0" shapeId="0">
+    <comment ref="CB6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL7" authorId="0" shapeId="0">
+    <comment ref="AL7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB7" authorId="0" shapeId="0">
+    <comment ref="CB7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB8" authorId="0" shapeId="0">
+    <comment ref="CB8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -169,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z9" authorId="0" shapeId="0">
+    <comment ref="Z9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB12" authorId="0" shapeId="0">
+    <comment ref="CB12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB13" authorId="0" shapeId="0">
+    <comment ref="CB13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB14" authorId="0" shapeId="0">
+    <comment ref="CB14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH14" authorId="0" shapeId="0">
+    <comment ref="CH14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB15" authorId="0" shapeId="0">
+    <comment ref="CB15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB16" authorId="0" shapeId="0">
+    <comment ref="CB16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB19" authorId="0" shapeId="0">
+    <comment ref="CB19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH19" authorId="0" shapeId="0">
+    <comment ref="CH19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB20" authorId="0" shapeId="0">
+    <comment ref="CB20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -309,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB21" authorId="0" shapeId="0">
+    <comment ref="CB21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB23" authorId="0" shapeId="0">
+    <comment ref="CB23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB26" authorId="0" shapeId="0">
+    <comment ref="CB26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -351,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL27" authorId="0" shapeId="0">
+    <comment ref="AL27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB27" authorId="0" shapeId="0">
+    <comment ref="CB27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -384,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="48">
   <si>
     <t>День недели</t>
   </si>
@@ -533,7 +534,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -1232,16 +1233,13 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1251,6 +1249,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1403,6 +1404,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1438,6 +1456,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1613,15 +1648,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EF50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -1889,7 +1924,7 @@
       <c r="K2" s="80"/>
       <c r="L2" s="80"/>
       <c r="M2" s="80"/>
-      <c r="N2" s="84"/>
+      <c r="N2" s="81"/>
       <c r="O2" s="79" t="s">
         <v>14</v>
       </c>
@@ -1905,7 +1940,7 @@
       <c r="W2" s="80"/>
       <c r="X2" s="80"/>
       <c r="Y2" s="80"/>
-      <c r="Z2" s="84"/>
+      <c r="Z2" s="81"/>
       <c r="AA2" s="79" t="s">
         <v>16</v>
       </c>
@@ -1913,7 +1948,7 @@
       <c r="AC2" s="80"/>
       <c r="AD2" s="80"/>
       <c r="AE2" s="80"/>
-      <c r="AF2" s="84"/>
+      <c r="AF2" s="81"/>
       <c r="AG2" s="3" t="s">
         <v>42</v>
       </c>
@@ -1929,7 +1964,7 @@
       <c r="AO2" s="80"/>
       <c r="AP2" s="80"/>
       <c r="AQ2" s="80"/>
-      <c r="AR2" s="81"/>
+      <c r="AR2" s="87"/>
       <c r="AS2" s="79" t="s">
         <v>21</v>
       </c>
@@ -1937,7 +1972,7 @@
       <c r="AU2" s="80"/>
       <c r="AV2" s="80"/>
       <c r="AW2" s="80"/>
-      <c r="AX2" s="84"/>
+      <c r="AX2" s="81"/>
       <c r="AY2" s="79" t="s">
         <v>19</v>
       </c>
@@ -1945,7 +1980,7 @@
       <c r="BA2" s="80"/>
       <c r="BB2" s="80"/>
       <c r="BC2" s="80"/>
-      <c r="BD2" s="84"/>
+      <c r="BD2" s="81"/>
       <c r="BE2" s="79" t="s">
         <v>24</v>
       </c>
@@ -1953,15 +1988,15 @@
       <c r="BG2" s="80"/>
       <c r="BH2" s="80"/>
       <c r="BI2" s="80"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="85" t="s">
+      <c r="BJ2" s="81"/>
+      <c r="BK2" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="86"/>
-      <c r="BM2" s="86"/>
-      <c r="BN2" s="86"/>
-      <c r="BO2" s="86"/>
-      <c r="BP2" s="87"/>
+      <c r="BL2" s="85"/>
+      <c r="BM2" s="85"/>
+      <c r="BN2" s="85"/>
+      <c r="BO2" s="85"/>
+      <c r="BP2" s="86"/>
       <c r="BQ2" s="79" t="s">
         <v>22</v>
       </c>
@@ -1977,7 +2012,7 @@
       <c r="BY2" s="80"/>
       <c r="BZ2" s="80"/>
       <c r="CA2" s="80"/>
-      <c r="CB2" s="81"/>
+      <c r="CB2" s="87"/>
       <c r="CC2" s="79" t="s">
         <v>23</v>
       </c>
@@ -1985,7 +2020,7 @@
       <c r="CE2" s="80"/>
       <c r="CF2" s="80"/>
       <c r="CG2" s="80"/>
-      <c r="CH2" s="81"/>
+      <c r="CH2" s="87"/>
       <c r="CI2" s="79" t="s">
         <v>25</v>
       </c>
@@ -1993,7 +2028,7 @@
       <c r="CK2" s="80"/>
       <c r="CL2" s="80"/>
       <c r="CM2" s="80"/>
-      <c r="CN2" s="84"/>
+      <c r="CN2" s="81"/>
       <c r="CO2" s="79" t="s">
         <v>26</v>
       </c>
@@ -2001,7 +2036,7 @@
       <c r="CQ2" s="80"/>
       <c r="CR2" s="80"/>
       <c r="CS2" s="80"/>
-      <c r="CT2" s="84"/>
+      <c r="CT2" s="81"/>
     </row>
     <row r="3" spans="1:122" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -2335,7 +2370,7 @@
       <c r="V4" s="11"/>
       <c r="W4" s="56">
         <f>SUM(W6:W37)</f>
-        <v>4.1562500000000009</v>
+        <v>4.1687500000000011</v>
       </c>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
@@ -2380,7 +2415,7 @@
       <c r="AZ4" s="11"/>
       <c r="BA4" s="56">
         <f>SUM(BA6:BA37)</f>
-        <v>3.0868055555555554</v>
+        <v>3.353472222222222</v>
       </c>
       <c r="BB4" s="12"/>
       <c r="BC4" s="12"/>
@@ -2398,7 +2433,7 @@
       <c r="BL4" s="11"/>
       <c r="BM4" s="56">
         <f>SUM(BM6:BM37)</f>
-        <v>7.6840277777777768</v>
+        <v>8.0555555555555554</v>
       </c>
       <c r="BN4" s="12"/>
       <c r="BO4" s="12"/>
@@ -2434,7 +2469,7 @@
       <c r="CJ4" s="11"/>
       <c r="CK4" s="56">
         <f>SUM(CK6:CK37)</f>
-        <v>6.6826388888888886</v>
+        <v>7.030555555555555</v>
       </c>
       <c r="CL4" s="12"/>
       <c r="CM4" s="12"/>
@@ -8340,19 +8375,21 @@
       <c r="S28" s="45"/>
       <c r="T28" s="53"/>
       <c r="U28" s="34">
-        <v>0</v>
+        <v>0.31736111111111115</v>
       </c>
       <c r="V28" s="34">
-        <v>0</v>
+        <v>0.3298611111111111</v>
       </c>
       <c r="W28" s="44">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.2499999999999956E-2</v>
       </c>
       <c r="X28" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" s="45"/>
+      <c r="Y28" s="45" t="s">
+        <v>45</v>
+      </c>
       <c r="Z28" s="53"/>
       <c r="AA28" s="34">
         <v>0</v>
@@ -8415,14 +8452,14 @@
       <c r="AW28" s="45"/>
       <c r="AX28" s="53"/>
       <c r="AY28" s="34">
-        <v>0</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="AZ28" s="34">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="BA28" s="44">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="BB28" s="45" t="s">
         <v>34</v>
@@ -8445,14 +8482,14 @@
       <c r="BI28" s="45"/>
       <c r="BJ28" s="53"/>
       <c r="BK28" s="34">
-        <v>0</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="BL28" s="34">
-        <v>0</v>
+        <v>0.66041666666666665</v>
       </c>
       <c r="BM28" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.37152777777777773</v>
       </c>
       <c r="BN28" s="45" t="s">
         <v>33</v>
@@ -8505,14 +8542,14 @@
       <c r="CG28" s="45"/>
       <c r="CH28" s="53"/>
       <c r="CI28" s="34">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CJ28" s="34">
-        <v>0</v>
+        <v>0.68125000000000002</v>
       </c>
       <c r="CK28" s="44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.34791666666666671</v>
       </c>
       <c r="CL28" s="57" t="s">
         <v>35</v>
@@ -8591,7 +8628,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="45" t="s">
+        <v>28</v>
+      </c>
       <c r="G29" s="45"/>
       <c r="H29" s="53"/>
       <c r="I29" s="34">
@@ -8617,7 +8656,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R29" s="45"/>
+      <c r="R29" s="45" t="s">
+        <v>29</v>
+      </c>
       <c r="S29" s="45"/>
       <c r="T29" s="53"/>
       <c r="U29" s="34">
@@ -8630,7 +8671,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X29" s="45"/>
+      <c r="X29" s="45" t="s">
+        <v>45</v>
+      </c>
       <c r="Y29" s="45"/>
       <c r="Z29" s="53"/>
       <c r="AA29" s="34">
@@ -8669,7 +8712,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP29" s="45"/>
+      <c r="AP29" s="45" t="s">
+        <v>31</v>
+      </c>
       <c r="AQ29" s="45"/>
       <c r="AR29" s="53"/>
       <c r="AS29" s="34">
@@ -8695,7 +8740,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BB29" s="45"/>
+      <c r="BB29" s="45" t="s">
+        <v>34</v>
+      </c>
       <c r="BC29" s="45"/>
       <c r="BD29" s="53"/>
       <c r="BE29" s="34">
@@ -8721,7 +8768,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BN29" s="45"/>
+      <c r="BN29" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="BO29" s="45"/>
       <c r="BP29" s="53"/>
       <c r="BQ29" s="34">
@@ -8773,7 +8822,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CL29" s="57"/>
+      <c r="CL29" s="57" t="s">
+        <v>35</v>
+      </c>
       <c r="CM29" s="58"/>
       <c r="CN29" s="59"/>
       <c r="CO29" s="34">
@@ -10623,8 +10674,14 @@
       <c r="B50" s="46"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:Z3"/>
+  <autoFilter ref="A3:Z3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="CC2:CH2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="BW2:CB2"/>
+    <mergeCell ref="CI2:CN2"/>
+    <mergeCell ref="CO2:CT2"/>
+    <mergeCell ref="AM2:AR2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="BQ2:BV2"/>
     <mergeCell ref="U2:Z2"/>
@@ -10633,12 +10690,6 @@
     <mergeCell ref="BE2:BJ2"/>
     <mergeCell ref="BK2:BP2"/>
     <mergeCell ref="AY2:BD2"/>
-    <mergeCell ref="CC2:CH2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="BW2:CB2"/>
-    <mergeCell ref="CI2:CN2"/>
-    <mergeCell ref="CO2:CT2"/>
-    <mergeCell ref="AM2:AR2"/>
   </mergeCells>
   <pageMargins left="0.59" right="0.28999999999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/отчет_по_автотранспорту_февраль_2022.xlsx
+++ b/src/отчет_по_автотранспорту_февраль_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D55E154-0637-45DC-A028-32162FBBCE63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BB471F-1B3F-41DF-8827-657E71E48FC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет_транспорт" sheetId="4" r:id="rId1"/>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="48">
   <si>
     <t>День недели</t>
   </si>
@@ -1652,11 +1652,11 @@
   <dimension ref="A1:EF50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="T20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="AJ34" sqref="AJ34"/>
+      <selection pane="bottomRight" activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -2352,7 +2352,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="56">
         <f>SUM(K6:K37)</f>
-        <v>7.9041666666666668</v>
+        <v>8.3375000000000004</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -2379,7 +2379,7 @@
       <c r="AB4" s="11"/>
       <c r="AC4" s="56">
         <f>SUM(AC6:AC37)</f>
-        <v>4.0131944444444452</v>
+        <v>4.6138888888888898</v>
       </c>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
@@ -2388,7 +2388,7 @@
       <c r="AH4" s="11"/>
       <c r="AI4" s="56">
         <f>SUM(AI6:AI37)</f>
-        <v>4.677083333333333</v>
+        <v>4.7576388888888888</v>
       </c>
       <c r="AJ4" s="12"/>
       <c r="AK4" s="12"/>
@@ -2406,7 +2406,7 @@
       <c r="AT4" s="11"/>
       <c r="AU4" s="56">
         <f>SUM(AU6:AU37)</f>
-        <v>4.7298611111111111</v>
+        <v>5.2729166666666663</v>
       </c>
       <c r="AV4" s="12"/>
       <c r="AW4" s="12"/>
@@ -2424,7 +2424,7 @@
       <c r="BF4" s="11"/>
       <c r="BG4" s="56">
         <f>SUM(BG6:BG37)</f>
-        <v>9.2833333333333314</v>
+        <v>9.9145833333333311</v>
       </c>
       <c r="BH4" s="12"/>
       <c r="BI4" s="12"/>
@@ -2442,7 +2442,7 @@
       <c r="BR4" s="11"/>
       <c r="BS4" s="56">
         <f>SUM(BS6:BS37)</f>
-        <v>4.7951388888888902</v>
+        <v>5.3423611111111118</v>
       </c>
       <c r="BT4" s="12"/>
       <c r="BU4" s="12"/>
@@ -2451,7 +2451,7 @@
       <c r="BX4" s="11"/>
       <c r="BY4" s="56">
         <f>SUM(BY6:BY37)</f>
-        <v>5.2513888888888891</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="BZ4" s="12"/>
       <c r="CA4" s="12"/>
@@ -2460,7 +2460,7 @@
       <c r="CD4" s="11"/>
       <c r="CE4" s="56">
         <f>SUM(CE6:CE37)</f>
-        <v>6.5041666666666664</v>
+        <v>6.7847222222222223</v>
       </c>
       <c r="CF4" s="12"/>
       <c r="CG4" s="12"/>
@@ -2478,7 +2478,7 @@
       <c r="CP4" s="11"/>
       <c r="CQ4" s="56">
         <f>SUM(CQ6:CQ37)</f>
-        <v>7.1777777777777771</v>
+        <v>7.645138888888888</v>
       </c>
       <c r="CR4" s="12"/>
       <c r="CS4" s="12"/>
@@ -8345,14 +8345,14 @@
       <c r="G28" s="45"/>
       <c r="H28" s="53"/>
       <c r="I28" s="34">
-        <v>0</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="J28" s="34">
-        <v>0</v>
+        <v>0.73541666666666661</v>
       </c>
       <c r="K28" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="L28" s="57" t="s">
         <v>30</v>
@@ -8392,14 +8392,14 @@
       </c>
       <c r="Z28" s="53"/>
       <c r="AA28" s="34">
-        <v>0</v>
+        <v>0.29930555555555555</v>
       </c>
       <c r="AB28" s="34">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AC28" s="44">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="AD28" s="45" t="s">
         <v>37</v>
@@ -8407,14 +8407,14 @@
       <c r="AE28" s="45"/>
       <c r="AF28" s="53"/>
       <c r="AG28" s="34">
-        <v>0</v>
+        <v>0.3034722222222222</v>
       </c>
       <c r="AH28" s="34">
-        <v>0</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="AI28" s="44">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.0555555555555602E-2</v>
       </c>
       <c r="AJ28" s="45" t="s">
         <v>44</v>
@@ -8437,19 +8437,21 @@
       <c r="AQ28" s="45"/>
       <c r="AR28" s="53"/>
       <c r="AS28" s="34">
-        <v>0</v>
+        <v>0.36180555555555555</v>
       </c>
       <c r="AT28" s="34">
-        <v>0</v>
+        <v>0.90486111111111101</v>
       </c>
       <c r="AU28" s="44">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.5430555555555554</v>
       </c>
       <c r="AV28" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="AW28" s="45"/>
+      <c r="AW28" s="45" t="s">
+        <v>39</v>
+      </c>
       <c r="AX28" s="53"/>
       <c r="AY28" s="34">
         <v>0.3833333333333333</v>
@@ -8467,19 +8469,21 @@
       <c r="BC28" s="45"/>
       <c r="BD28" s="53"/>
       <c r="BE28" s="34">
-        <v>0</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="BF28" s="34">
-        <v>0</v>
+        <v>0.89861111111111114</v>
       </c>
       <c r="BG28" s="44">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.63125000000000009</v>
       </c>
       <c r="BH28" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="BI28" s="45"/>
+      <c r="BI28" s="45" t="s">
+        <v>37</v>
+      </c>
       <c r="BJ28" s="53"/>
       <c r="BK28" s="34">
         <v>0.28888888888888892</v>
@@ -8497,14 +8501,14 @@
       <c r="BO28" s="45"/>
       <c r="BP28" s="53"/>
       <c r="BQ28" s="34">
-        <v>0</v>
+        <v>0.35486111111111113</v>
       </c>
       <c r="BR28" s="34">
-        <v>0</v>
+        <v>0.90208333333333324</v>
       </c>
       <c r="BS28" s="44">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.54722222222222205</v>
       </c>
       <c r="BT28" s="45" t="s">
         <v>31</v>
@@ -8512,14 +8516,14 @@
       <c r="BU28" s="45"/>
       <c r="BV28" s="53"/>
       <c r="BW28" s="34">
-        <v>0</v>
+        <v>0.39444444444444443</v>
       </c>
       <c r="BX28" s="34">
-        <v>0</v>
+        <v>0.91805555555555562</v>
       </c>
       <c r="BY28" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.52361111111111125</v>
       </c>
       <c r="BZ28" s="45" t="s">
         <v>31</v>
@@ -8527,14 +8531,14 @@
       <c r="CA28" s="45"/>
       <c r="CB28" s="53"/>
       <c r="CC28" s="34">
-        <v>0</v>
+        <v>0.34791666666666665</v>
       </c>
       <c r="CD28" s="34">
-        <v>0</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="CE28" s="44">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.28055555555555556</v>
       </c>
       <c r="CF28" s="45" t="s">
         <v>31</v>
@@ -8557,14 +8561,14 @@
       <c r="CM28" s="58"/>
       <c r="CN28" s="59"/>
       <c r="CO28" s="34">
-        <v>0</v>
+        <v>0.30833333333333335</v>
       </c>
       <c r="CP28" s="34">
-        <v>0</v>
+        <v>0.77569444444444446</v>
       </c>
       <c r="CQ28" s="44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.46736111111111112</v>
       </c>
       <c r="CR28" s="57" t="s">
         <v>40</v>
@@ -8643,7 +8647,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L29" s="57"/>
+      <c r="L29" s="57" t="s">
+        <v>30</v>
+      </c>
       <c r="M29" s="58"/>
       <c r="N29" s="59"/>
       <c r="O29" s="34">
@@ -8686,7 +8692,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="45"/>
+      <c r="AD29" s="45" t="s">
+        <v>37</v>
+      </c>
       <c r="AE29" s="45"/>
       <c r="AF29" s="53"/>
       <c r="AG29" s="34">
@@ -8699,7 +8707,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ29" s="45"/>
+      <c r="AJ29" s="45" t="s">
+        <v>44</v>
+      </c>
       <c r="AK29" s="45"/>
       <c r="AL29" s="53"/>
       <c r="AM29" s="34">
@@ -8727,7 +8737,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AV29" s="45"/>
+      <c r="AV29" s="45" t="s">
+        <v>39</v>
+      </c>
       <c r="AW29" s="45"/>
       <c r="AX29" s="53"/>
       <c r="AY29" s="34">
@@ -8755,7 +8767,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BH29" s="45"/>
+      <c r="BH29" s="45" t="s">
+        <v>37</v>
+      </c>
       <c r="BI29" s="45"/>
       <c r="BJ29" s="53"/>
       <c r="BK29" s="34">
@@ -8783,7 +8797,9 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BT29" s="45"/>
+      <c r="BT29" s="45" t="s">
+        <v>31</v>
+      </c>
       <c r="BU29" s="45"/>
       <c r="BV29" s="53"/>
       <c r="BW29" s="34">
@@ -8796,7 +8812,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BZ29" s="45"/>
+      <c r="BZ29" s="45" t="s">
+        <v>31</v>
+      </c>
       <c r="CA29" s="45"/>
       <c r="CB29" s="53"/>
       <c r="CC29" s="34">
@@ -8809,7 +8827,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="CF29" s="45"/>
+      <c r="CF29" s="45" t="s">
+        <v>31</v>
+      </c>
       <c r="CG29" s="45"/>
       <c r="CH29" s="53"/>
       <c r="CI29" s="34">
@@ -8837,7 +8857,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="CR29" s="57"/>
+      <c r="CR29" s="57" t="s">
+        <v>40</v>
+      </c>
       <c r="CS29" s="58"/>
       <c r="CT29" s="59"/>
       <c r="CU29" s="28"/>
